--- a/Mcap2021/Data/Metabolomics/metabolomics_metadata.xlsx
+++ b/Mcap2021/Data/Metabolomics/metabolomics_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/SymbioticIntegration/Mcap2021/Data/Metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3712A28D-7FDE-8245-B8D9-1CAEB4810A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE452F5-78E8-234B-AA1E-73CE25B0FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35600" yWindow="-1160" windowWidth="25800" windowHeight="17440" xr2:uid="{6DEA0E3B-AE2D-9541-A3EB-1B957C84F644}"/>
+    <workbookView xWindow="-33920" yWindow="-520" windowWidth="25800" windowHeight="18880" xr2:uid="{6DEA0E3B-AE2D-9541-A3EB-1B957C84F644}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="97">
   <si>
     <t>isotope_treatment</t>
   </si>
@@ -210,16 +210,139 @@
   </si>
   <si>
     <t>testing host and symbiont separations; not analyzed in this study</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>I27</t>
+  </si>
+  <si>
+    <t>I28</t>
+  </si>
+  <si>
+    <t>I29</t>
+  </si>
+  <si>
+    <t>I30</t>
+  </si>
+  <si>
+    <t>I31</t>
+  </si>
+  <si>
+    <t>I32</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>I24</t>
+  </si>
+  <si>
+    <t>I25</t>
+  </si>
+  <si>
+    <t>I26</t>
+  </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>I39</t>
+  </si>
+  <si>
+    <t>I40</t>
+  </si>
+  <si>
+    <t>1hr_rep1</t>
+  </si>
+  <si>
+    <t>1hr_rep2</t>
+  </si>
+  <si>
+    <t>3hr_rep1</t>
+  </si>
+  <si>
+    <t>3hr_rep2</t>
+  </si>
+  <si>
+    <t>6hr_rep1</t>
+  </si>
+  <si>
+    <t>6hr_rep2</t>
+  </si>
+  <si>
+    <t>12hr_rep1</t>
+  </si>
+  <si>
+    <t>12hr_rep2</t>
+  </si>
+  <si>
+    <t>24hr_rep1</t>
+  </si>
+  <si>
+    <t>24hr_rep2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -581,21 +704,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C0225B-364A-324B-AD74-E804F9B791AF}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -606,13 +730,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -623,10 +750,13 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -637,10 +767,13 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -651,10 +784,13 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -665,10 +801,13 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -679,10 +818,13 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -693,10 +835,13 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -707,10 +852,13 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -721,10 +869,13 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -735,10 +886,13 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -749,10 +903,13 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -763,10 +920,13 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -777,10 +937,13 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -791,10 +954,13 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -805,10 +971,13 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -819,10 +988,13 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -833,10 +1005,13 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -847,10 +1022,13 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -861,10 +1039,13 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -875,10 +1056,13 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -889,10 +1073,13 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -903,10 +1090,13 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -917,10 +1107,13 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -931,10 +1124,13 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -945,10 +1141,13 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -959,10 +1158,13 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -973,10 +1175,13 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -987,10 +1192,13 @@
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1001,10 +1209,13 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1015,10 +1226,13 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1029,10 +1243,13 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1043,10 +1260,13 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1057,10 +1277,13 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1071,10 +1294,13 @@
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1085,10 +1311,13 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1099,10 +1328,13 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1113,10 +1345,13 @@
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1127,10 +1362,13 @@
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1141,10 +1379,13 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1154,11 +1395,14 @@
       <c r="C40" t="s">
         <v>34</v>
       </c>
-      <c r="D40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1168,14 +1412,17 @@
       <c r="C41" t="s">
         <v>34</v>
       </c>
-      <c r="D41" t="s">
-        <v>37</v>
+      <c r="D41">
+        <v>83</v>
       </c>
       <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1185,14 +1432,17 @@
       <c r="C42" t="s">
         <v>34</v>
       </c>
-      <c r="D42" t="s">
-        <v>37</v>
+      <c r="D42">
+        <v>84</v>
       </c>
       <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1202,14 +1452,17 @@
       <c r="C43" t="s">
         <v>34</v>
       </c>
-      <c r="D43" t="s">
-        <v>37</v>
+      <c r="D43">
+        <v>83</v>
       </c>
       <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1219,14 +1472,17 @@
       <c r="C44" t="s">
         <v>34</v>
       </c>
-      <c r="D44" t="s">
-        <v>37</v>
+      <c r="D44">
+        <v>84</v>
       </c>
       <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1236,14 +1492,17 @@
       <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="D45" t="s">
-        <v>37</v>
+      <c r="D45">
+        <v>83</v>
       </c>
       <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1253,14 +1512,17 @@
       <c r="C46" t="s">
         <v>34</v>
       </c>
-      <c r="D46" t="s">
-        <v>37</v>
+      <c r="D46">
+        <v>84</v>
       </c>
       <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1270,14 +1532,18 @@
       <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="D47" t="s">
-        <v>37</v>
+      <c r="D47">
+        <v>90</v>
       </c>
       <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>